--- a/data/gnIOzY7esA0.xlsx
+++ b/data/gnIOzY7esA0.xlsx
@@ -46,10 +46,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,1538 +427,1538 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="147.6" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="13.2" customWidth="1" min="4" max="4"/>
-    <col width="37.2" customWidth="1" min="5" max="5"/>
-    <col width="33.6" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>like_cnt</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>reply_cnt</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>user_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>parentId</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>日本も短命政権がいくつかあるけど、女性首相から旧植民地出身首相というダイナミズムは、さすがイギリスって感じ。先にロンドン市長も植民地出身だったし。
 ま、欧州王家は国境を超えた即位や婚姻が当たり前だったから、東洋よりも外国系に寛容なんだろうな。</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>加藤岳人</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Ugz8uTOakykIvNYLYN94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>『私よりも盛大に、そして最短で、転けることを祈る』と聞こえる。</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>藤岡ジンギ</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>UgwEL8Uy5MP-FvMYtaJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>これでロシアのインド離れが加速するとなると、もっと上の力によって彼が選ばれたような…</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I R</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>UgzWsv_XOHQ_hll4acV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>減税ばかり求める国民が多いから良い勉強になったのは事実か。
 ある意味減税だけでは何も解決しないことが証明されたってことじゃないかな。
 そもそも税金が無い国で潤ってる国ってあるんだろうか。</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>ゆるりず。背伸びしない暮らし</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Ugxsuzg9e8eCvrXVGr54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>日本難なく円安ですがやりくりうまくやってます。イギリスはEU-,離脱難局面</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>タカシ浅川</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Ugyl3Yw8CuvjQ59r49Z4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>42歳で首相って凄いな</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>もりやす</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>Ugya9QJ1rWrzPsc59qt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>トラスさん絶対良い人だと思う。自らのミスをストレートに謝罪でき、そのショックを一切見せずに、英国の明るい未来を願って後任にエールを送る。誰もが理想とするような政治家の振る舞い。</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Honda Edmond</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>UgyOM9sMHkNynaQvs314AaABAg</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>過去200年間で最年少というのは、24歳で就任した小ピットがいるからか</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>UgxiniBxRQi_MX7uYm14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>トラスさんは潔くて良き。なお検討使</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>焼き魚君</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>UgxPLluD9PKGOVkKgZp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>イギリス首相は、最若は20代やからなぁ</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>ナンカ</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>UgxaW9iHABrgXnQkNHN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>岸田さんもそろそろ潮時だと思うけど・・・問題は後釜だよな～～。</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>コーギーこころ</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>UgxmgknxIokQQXHKYTx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>何もしない岸田も辞任しろよ〜聞く力✨って聞いてるだけだろ〜</t>
         </is>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>ちゃんえぴ</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>UgwpXrAr_HeRnz3YGfB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>EU 残留派のクーデターね。グローバリスト達。減税するとこんな事に！って世界にアピール。増税開始のスタグフレーション。</t>
         </is>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>日の丸弁当</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>UgwX83eZvjboXsyWiBV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>スナクさんディズニーのアニメーションで出てきそうな顔。</t>
         </is>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>だぉノア恢</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Ugyx35PtO0fCD_UhptF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>一言で言えば党の中の足の引っ張り合い。大丈夫か英国。</t>
         </is>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>鞍馬天狗</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>UgzXfKg5dH7LbJvRod94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>退任RTAまじで辞めて欲しい
 理由わかんないけど</t>
         </is>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>国際信州学院大学</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>Ugx1fUGXYF32gJX626F4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>イギリス人やから、皮肉いってる様な気がするww</t>
         </is>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>ナンカ</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>UgwrJY9bPSeIcxrRjHx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>トラスさんぱいおつカイデーだし、けつがえっちいな</t>
         </is>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>まっす〜!</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>Ugzkats2ZpRfrUFca9J4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>ジョンソンが党首選出馬とか笑い話があっけど、この人も大丈夫なのかな。</t>
         </is>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>隆二 野呂田</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>UgxsFRDFs60uMjZ7FCd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>1月半でやめる、首相もいるんや。わいなんかブラック企業10年目や！</t>
         </is>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Hot R</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>UgwnY0305XeDhITs9Vx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>トラスさんノーブラなんだね。</t>
         </is>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>NANA</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>Ugz93XDNFXhIxeygNuh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>深刻な経済は世界的ですよね</t>
         </is>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>クリスリーブ</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>UgwBUZNtrUCuQGJ1Klh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>フルスピードでやめるのが…いや、やめた</t>
         </is>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>あさ</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>UgzOYn91-Xmd7QS4L-B4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>短かったけどお疲れさん</t>
         </is>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="D25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>桜</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>UgwBI2sVfhQ2jEvJa8V4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>大失敗して数十日で投げ出した人に言われてもね笑</t>
         </is>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>hujitota</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>UgygJRz2puN6BDvUpNx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>岸田と林の辞任も祈って下さい。</t>
         </is>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>ダブリーハイテイ</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>Ugyd8NZjkzU0HEraR254AaABAg</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>スナク首相の目が怖いと思うのは自分だけ？</t>
         </is>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="D28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>ゆみな🍑</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>UgyZJl51xTxjG68ufAN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>ドミノ倒しは続くのか 笑</t>
         </is>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>YOSUKE</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>UgyGgftlbTcC9afUnUV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>0:09 お前にだけは言われたくないって絶対思ってるよ</t>
         </is>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>ゆうき</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>UgwhE0r6qLs2ExsEd1B4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>ジョンソンよくやった。
 日本以外はお掃除頑張ってるね。</t>
         </is>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>釈迦</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>UgwjaOWMVVtWloVgCvJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>実力ないとやっぱり無理なんですよ。</t>
         </is>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>仕事は手を抜く</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>UgyGxzGD1ngHHpcLSxl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>娘さんも巨（略</t>
         </is>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="D33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>osg1017</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>Ugy1BAyykqAlX-Pkitx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>アジア系の範囲広すぎだろ
 東洋かせいぜい東南アジア系かと思ったらインドかよ</t>
         </is>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>清純女子</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>Ugzra6FSAakTe6pMF2R4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>首相の短期バイト</t>
         </is>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>クモ</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>UgzG_3gbDnm5AM_I6uV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>女性首相に続きインド系若年首相
 経済のみならず多様性まである、悲しくなってくるね</t>
         </is>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>ああ</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>UgyTX9Qc4rmfdslAl6h4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>スナクも別に人気あるわけでもないんよな</t>
         </is>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>P51 mustang</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>Ugxk1MBc6u2HUrnHLIZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>ここでインド系かあ…
 本人の手腕はともかく、若さと旧植民地からの首相はダブルでハンデになりかねないな
 上手くやってる内はいいが、一度まずくなると…</t>
         </is>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>gunso Viva</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>UgzgnKUvvnsUomfOVUt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>レタスにも勝てない鉄の女モドキ</t>
         </is>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="C39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>大天使</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>UgwQoDd6rEj9BiHH1z54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>トラスさんノーブラw</t>
         </is>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="D40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>ミニトマト</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>UgwppmQIdiLKVS4cK3p4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>日本で例えるなら
 レンポウが総理大臣になるようなもん
 知らんけど</t>
         </is>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="C41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>N N</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>Ugwg_OnWkLziGQCOcBJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>美人だな
 52歳に見えない</t>
         </is>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="D42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>y t</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>UgzKqbIZgmLSw5uyhg94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>緑が似合うね</t>
         </is>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>むむ</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>UgzILxn6Rv4KgA2cxH54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>コレって聖仙・空無って意味でＯＫ？</t>
         </is>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="C44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>今お使いのキーボードで音量調整!無料NT配列で楽々つべ生活</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>UgxzR3CvdliwAPXnwxx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>この女の人、いつもへらへらしているよね！！！</t>
         </is>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="C45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>sawadee koi3</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>UgyIxDVgA937MXlXKWR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>首相やってたんか</t>
         </is>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>板チョコ</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>Ugy4ME7V9iC4iRhA-tt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>はずかしすぎ</t>
         </is>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="C47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>はるさめ</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>UgxZpGDLx6JkGQmoFfB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>たしかトラスって身長180くらいあるんだよな</t>
         </is>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="C48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>中田翔</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>UgxcglBaT8buHVFvA9V4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>コメ欄の下の方終わってて草</t>
         </is>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>長閑。</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>Ugzdzid1x3wCovaqTpp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>トラスさん、ご苦労さまでした。</t>
         </is>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>イケダヒロシ</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>Ugy06emKx2_P_gy0ipJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>蛙亭の人に似てる</t>
         </is>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="C51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>NDGs</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>Ugx0FiW3eKDGXsNGk0x4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>トラスさん別に悪くないと思うのになぁ
 いつか再登板してほしい</t>
         </is>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>中川禎一</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>UgxKcqfQPwtoeEyLUot4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>スナク腹黒そう</t>
         </is>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>いいいいい</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>Ugw3dVDo4Wpz1exwtWx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Riz💖何処へ💧</t>
         </is>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>菊力</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>UgwGm_l7cjZnbubF2mt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>単なるババ抜きのババ押し付けられてるだけと</t>
         </is>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>桃の助</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>UgxCPVJe6d829OwdHfF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>キャベツ</t>
         </is>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="C56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>かめきち!</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>Ugz4jXyY2atnNkwg-0R4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>大きいなぁ
 もっと谷間ださんかい！
 チャールズはクロンボ嫌いやけど大丈夫か？</t>
         </is>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="D57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>綾小路清隆</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>Ugyraf_b0JJ1TYwd8kZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>今回の件で分かっただろ。メスに政治は無理。</t>
         </is>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="n">
+      <c r="C58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>KDDDI</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>UgyzSW-pM5flFLbq8dZ4AaABAg</t>
         </is>
